--- a/test/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
+++ b/test/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\Showcases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73B679-D3C0-45D1-BC4A-D82A2707C4F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15240" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment Exposure Overview" sheetId="10" r:id="rId1"/>
@@ -14,7 +20,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Environment Exposure Breakdown'!$A$1:$AG$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Environment Exposure Overview'!$A$1:$D$24</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -120,10 +134,6 @@
 (BPM)</t>
   </si>
   <si>
-    <t>BioGears HeartRate
-(BPM)</t>
-  </si>
-  <si>
     <t>ArterialPressure
 (mmHg)</t>
   </si>
@@ -137,31 +147,15 @@
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears MeanArterialPressure
-(mmHg)</t>
-  </si>
-  <si>
     <t>SystolicArterialPressure
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears SystolicArterialPressure
-(mmHg)</t>
-  </si>
-  <si>
     <t>DiastolicArterialPressure
 (mmHg)</t>
   </si>
   <si>
-    <t>BioGears DiastolicArterialPressure
-(mmHg)</t>
-  </si>
-  <si>
     <t>RespirationRate
-(Breaths/min)</t>
-  </si>
-  <si>
-    <t>BioGears RespirationRate
 (Breaths/min)</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
   </si>
   <si>
     <t>End</t>
-  </si>
-  <si>
-    <t>The environment exposure scenario simulates the physiology of an adult woman who is exposed to cold weather long enough to develop hypothermia. This scenario highlights the ability of the BioGears® physiology engine to siimulate physiology when the body is exposed to an abnormal environment.</t>
   </si>
   <si>
     <t>A 17 year old female with no prior history.</t>
@@ -268,18 +259,10 @@
 (C)</t>
   </si>
   <si>
-    <t>BioGears CoreTemperature
-(C)</t>
-  </si>
-  <si>
     <t>SkinTemperature
 (C)</t>
   </si>
   <si>
-    <t>BioGears SkinTemperature
-(C)</t>
-  </si>
-  <si>
     <t>Oxygen Consumption
 (mL/min)</t>
   </si>
@@ -307,29 +290,6 @@
   </si>
   <si>
     <t>At the end of this segment patient has been indoors and actively heated for 10 minutes</t>
-  </si>
-  <si>
-    <r>
-      <t>Standard initialization buffer for scenarios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. At the end of this segment this patient is in a resting physiological state. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>For validation references see the biogears documentation on resting physiology validation.</t>
-    </r>
   </si>
   <si>
     <t>Decreasing to baseline [32, S1]</t>
@@ -528,12 +488,46 @@
   <si>
     <t>4</t>
   </si>
+  <si>
+    <t>Engine HeartRate
+(BPM)</t>
+  </si>
+  <si>
+    <t>Engine MeanArterialPressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine SystolicArterialPressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine DiastolicArterialPressure
+(mmHg)</t>
+  </si>
+  <si>
+    <t>Engine RespirationRate
+(Breaths/min)</t>
+  </si>
+  <si>
+    <t>Engine CoreTemperature
+(C)</t>
+  </si>
+  <si>
+    <t>Engine SkinTemperature
+(C)</t>
+  </si>
+  <si>
+    <t>Standard initialization buffer for scenarios. At the end of this segment this patient is in a resting physiological state. For validation references see the Engine documentation on resting physiology validation.</t>
+  </si>
+  <si>
+    <t>The environment exposure scenario simulates the physiology of an adult woman who is exposed to cold weather long enough to develop hypothermia. This scenario highlights the ability of the Pulse physiology engine to siimulate physiology when the body is exposed to an abnormal environment.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,12 +590,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -627,12 +615,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -879,7 +861,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,10 +870,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,16 +885,16 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -930,13 +912,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -990,29 +972,41 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1037,18 +1031,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1065,6 +1047,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1113,7 +1098,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1146,9 +1131,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1181,6 +1183,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1356,14 +1375,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,20 +1394,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1406,65 +1425,65 @@
     </row>
     <row r="4" spans="1:4" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
+      <c r="B7" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
+      <c r="B8" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:4" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
+      <c r="B9" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -1490,43 +1509,43 @@
     </row>
     <row r="13" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
+        <v>102</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
     </row>
     <row r="14" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
+        <v>103</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+        <v>104</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
+        <v>105</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -1538,23 +1557,23 @@
     </row>
     <row r="18" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
+        <v>44</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
     </row>
     <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
+        <v>46</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
@@ -1600,6 +1619,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B9:D9"/>
@@ -1607,12 +1632,6 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1624,13 +1643,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y3" sqref="Y3"/>
     </sheetView>
@@ -1693,85 +1712,85 @@
         <v>23</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="M1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="O1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="S1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="T1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="U1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="W1" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X1" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="Z1" s="39" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AC1" s="58" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AD1" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AE1" s="58" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="14" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AG1" s="58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="150" x14ac:dyDescent="0.25">
@@ -1785,59 +1804,59 @@
         <v>60</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>92</v>
-      </c>
       <c r="P2" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S2" s="27"/>
       <c r="T2" s="21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="W2" s="41">
         <v>40.658000000000001</v>
@@ -1849,7 +1868,7 @@
         <v>37</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="67">
         <v>33</v>
@@ -1867,7 +1886,7 @@
         <v>170</v>
       </c>
       <c r="AF2" s="20" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG2" s="67">
         <v>67.5</v>
@@ -1885,13 +1904,13 @@
         <v>2400</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G3" s="67">
         <v>130</v>
@@ -1899,67 +1918,67 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K3" s="67">
         <v>102</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M3" s="67">
         <v>115</v>
       </c>
       <c r="N3" s="65" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="O3" s="68">
         <v>85</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Q3" s="67">
         <v>30</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S3" s="27"/>
       <c r="T3" s="29"/>
       <c r="U3" s="28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="V3" s="29"/>
       <c r="W3" s="41">
         <v>36.732999999999997</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="Y3" s="68">
         <v>36</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AA3" s="67">
         <v>24</v>
       </c>
       <c r="AB3" s="20" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AC3" s="67">
         <v>475</v>
       </c>
       <c r="AD3" s="20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="AE3" s="67">
         <v>400</v>
       </c>
       <c r="AF3" s="20" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="AG3" s="68">
         <v>420</v>
@@ -1977,81 +1996,81 @@
         <v>630</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F4" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>81</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>90</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="43"/>
       <c r="J4" s="42" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="N4" s="65" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P4" s="42" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R4" s="26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S4" s="27"/>
       <c r="T4" s="29"/>
       <c r="U4" s="28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="V4" s="29"/>
       <c r="W4" s="41">
         <v>41.706000000000003</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Y4" s="67">
         <v>36</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="AA4" s="67">
         <v>30</v>
       </c>
       <c r="AB4" s="20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AC4" s="67">
         <v>450</v>
       </c>
       <c r="AD4" s="20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AE4" s="67">
         <v>360</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG4" s="67">
         <v>370</v>
@@ -2059,7 +2078,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B5" s="25">
         <f>B4+C4</f>
@@ -2067,7 +2086,7 @@
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="31"/>
@@ -2111,7 +2130,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="66"/>
       <c r="F7" s="33" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N7" s="64"/>
     </row>

--- a/test/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
+++ b/test/validation/Scenarios/Showcases/EnvironmentExposureValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\Showcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_Documentation\source\test\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73B679-D3C0-45D1-BC4A-D82A2707C4F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC11A644-2EA4-4C0C-85E8-A19EA08DE51C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="1695" windowWidth="40350" windowHeight="25635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment Exposure Overview" sheetId="10" r:id="rId1"/>
@@ -407,9 +407,6 @@
     </r>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>95</t>
   </si>
   <si>
@@ -429,9 +426,6 @@
   </si>
   <si>
     <t>17</t>
-  </si>
-  <si>
-    <t>28</t>
   </si>
   <si>
     <t>Increase initially then decrease [2]</t>
@@ -521,6 +515,12 @@
   </si>
   <si>
     <t>The environment exposure scenario simulates the physiology of an adult woman who is exposed to cold weather long enough to develop hypothermia. This scenario highlights the ability of the Pulse physiology engine to siimulate physiology when the body is exposed to an abnormal environment.</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -996,6 +996,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1007,30 +1031,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1381,7 +1381,7 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -1394,20 +1394,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
+      <c r="A2" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1438,52 +1438,52 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
     </row>
     <row r="9" spans="1:4" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -1509,43 +1509,43 @@
     </row>
     <row r="13" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
     </row>
     <row r="14" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
     </row>
     <row r="15" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -1559,21 +1559,21 @@
       <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
     </row>
     <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
@@ -1619,12 +1619,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B9:D9"/>
@@ -1632,6 +1626,12 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1649,9 +1649,9 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,7 +1712,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>24</v>
@@ -1724,25 +1724,25 @@
         <v>26</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L1" s="57" t="s">
         <v>27</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N1" s="57" t="s">
         <v>28</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P1" s="38" t="s">
         <v>29</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R1" s="16" t="s">
         <v>30</v>
@@ -1766,13 +1766,13 @@
         <v>58</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z1" s="39" t="s">
         <v>59</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB1" s="14" t="s">
         <v>60</v>
@@ -1807,13 +1807,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>62</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>34</v>
@@ -1825,25 +1825,25 @@
         <v>63</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>74</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>64</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>65</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R2" s="26" t="s">
         <v>36</v>
@@ -1910,21 +1910,21 @@
         <v>67</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" s="67">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K3" s="67">
         <v>102</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M3" s="67">
         <v>115</v>
@@ -1936,10 +1936,10 @@
         <v>85</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q3" s="67">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R3" s="26" t="s">
         <v>40</v>
@@ -1954,7 +1954,7 @@
         <v>36.732999999999997</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Y3" s="68">
         <v>36</v>
@@ -1966,19 +1966,19 @@
         <v>24</v>
       </c>
       <c r="AB3" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC3" s="67">
         <v>475</v>
       </c>
       <c r="AD3" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AE3" s="67">
         <v>400</v>
       </c>
       <c r="AF3" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG3" s="68">
         <v>420</v>
@@ -2004,34 +2004,34 @@
       <c r="F4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>81</v>
+      <c r="G4" s="68" t="s">
+        <v>113</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="43"/>
       <c r="J4" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="65" t="s">
         <v>70</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P4" s="42" t="s">
         <v>69</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="R4" s="26" t="s">
         <v>40</v>
@@ -2046,7 +2046,7 @@
         <v>41.706000000000003</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y4" s="67">
         <v>36</v>
@@ -2058,13 +2058,13 @@
         <v>30</v>
       </c>
       <c r="AB4" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AC4" s="67">
         <v>450</v>
       </c>
       <c r="AD4" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AE4" s="67">
         <v>360</v>
